--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jin/GitHub/GitHub/excel2mysql/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>名字</t>
     <rPh sb="0" eb="1">
@@ -448,18 +444,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,177 +468,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B3" s="1">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5382830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7128979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4377839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2135433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>654332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>32153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>34256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5382830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7128979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4377839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2135433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1">
-        <v>654332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>314312</v>
       </c>
     </row>
